--- a/docss/trend/france/E_ataxy.xlsx
+++ b/docss/trend/france/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1693,15 +1693,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:F17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1717,235 +1717,257 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>6.3556436449289322E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>9.6495968755334616E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="9">
-        <v>2.7379952371120453E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>5.734963936265558E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>2.1953282412141562E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D3" s="9">
-        <v>1.0058608604595065E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
-      <c r="B4" s="9">
-        <v>6.5994265081826597E-2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.1471752310171723E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>7.1405174676328897E-3</v>
+      <c r="B4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>5.967095447704196E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.3367393403314054E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1.1720358859747648E-2</v>
+      <c r="B5">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.2E-2</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>6.2507130962330848E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.6190361008048058E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.4521414181217551E-2</v>
+      <c r="B6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>5.3119995864108205E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.5192270977422595E-2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.6854361398145556E-2</v>
+      <c r="B7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>5.9149087173864245E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2.5923615787178278E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>7.6882085995748639E-3</v>
+      <c r="B8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>6.1124391620978713E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.2411015825346112E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.099987119436264E-2</v>
+      <c r="B9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>7.3391204350627959E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2.8682829579338431E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2.2704127361066639E-2</v>
+      <c r="B10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.3E-2</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>5.4316006717272103E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2.2329754428938031E-2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1.4698768267408013E-2</v>
+      <c r="B11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>5.9081811341457069E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>8.6208106949925423E-3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2.7287047705613077E-2</v>
+      <c r="B12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.7E-2</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>5.5024179862812161E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2.6754462858662009E-2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2.1466981852427125E-2</v>
+      <c r="B13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>5.923621344845742E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2.9010753147304058E-2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1.7528677533846349E-2</v>
+      <c r="B14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
